--- a/data/trans_orig/P53-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P53-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6976</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13420</v>
+        <v>13147</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09323430318943085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03994937861139394</v>
+        <v>0.03998340885055666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1793565455341313</v>
+        <v>0.1756989001203375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5199</v>
+        <v>5112</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02270007241733052</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1163167109166079</v>
+        <v>0.1143750668864923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -785,19 +785,19 @@
         <v>7991</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3918</v>
+        <v>3868</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14922</v>
+        <v>14484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0668577779388229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03278488587498409</v>
+        <v>0.03236250153105961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.124851156251127</v>
+        <v>0.121187305953579</v>
       </c>
     </row>
     <row r="5">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6510</v>
+        <v>6130</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02604648667828958</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08700708268638192</v>
+        <v>0.08191916365661875</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7381</v>
+        <v>6129</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01630631079433741</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06175179627165692</v>
+        <v>0.05127978073847431</v>
       </c>
     </row>
     <row r="7">
@@ -924,19 +924,19 @@
         <v>11026</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5967</v>
+        <v>5759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18261</v>
+        <v>17891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1473552742692598</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07974784440629601</v>
+        <v>0.0769663537518837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.244050041061903</v>
+        <v>0.2391064083997755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -945,19 +945,19 @@
         <v>4114</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1007</v>
+        <v>1029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9233</v>
+        <v>10169</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09205441079684748</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02253734713386007</v>
+        <v>0.02302980109187537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2065790836224602</v>
+        <v>0.2275091164685217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -966,19 +966,19 @@
         <v>15140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9443</v>
+        <v>9020</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23260</v>
+        <v>23527</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1266753206383276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07901184971731666</v>
+        <v>0.07546792793725465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1946144613901214</v>
+        <v>0.1968458632578393</v>
       </c>
     </row>
     <row r="8">
@@ -995,7 +995,7 @@
         <v>54874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46509</v>
+        <v>46816</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>61710</v>
@@ -1004,10 +1004,10 @@
         <v>0.7333639358630197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6215647409516712</v>
+        <v>0.6256682980120317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8247308528562005</v>
+        <v>0.8247237490813586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -1016,19 +1016,19 @@
         <v>39566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34375</v>
+        <v>33097</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42765</v>
+        <v>42735</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.885245516785822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7691083805410369</v>
+        <v>0.7405169769084442</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9568143690659627</v>
+        <v>0.9561461421233844</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -1037,19 +1037,19 @@
         <v>94439</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83833</v>
+        <v>85230</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>102256</v>
+        <v>102144</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7901605906285121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7014226272475411</v>
+        <v>0.7131097626280944</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8555641922254736</v>
+        <v>0.8546234206522528</v>
       </c>
     </row>
     <row r="9">
@@ -1141,19 +1141,19 @@
         <v>9400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4556</v>
+        <v>4288</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17394</v>
+        <v>17237</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0352052836072466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01706385163296679</v>
+        <v>0.01606037183959927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06514032644400471</v>
+        <v>0.06455406069209085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1162,19 +1162,19 @@
         <v>2748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8236</v>
+        <v>7494</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01138049710506156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003176600246866674</v>
+        <v>0.003172184745454928</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03410923763206233</v>
+        <v>0.03103509734094738</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1183,19 +1183,19 @@
         <v>12148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6420</v>
+        <v>6243</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20310</v>
+        <v>20631</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02389149801709111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01262621550964928</v>
+        <v>0.01227859138016814</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03994320402324783</v>
+        <v>0.04057459541093122</v>
       </c>
     </row>
     <row r="11">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5940</v>
+        <v>4343</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003717935271589879</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02224415390817603</v>
+        <v>0.01626603846921854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6358</v>
+        <v>6434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005322650029441008</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02633213019415115</v>
+        <v>0.02664495791589992</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7724</v>
+        <v>7238</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004479973525406797</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01519042821842109</v>
+        <v>0.01423404293389221</v>
       </c>
     </row>
     <row r="12">
@@ -1283,19 +1283,19 @@
         <v>2864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7773</v>
+        <v>8052</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01072575676190843</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003396177806928501</v>
+        <v>0.003387346966359114</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02911213990585015</v>
+        <v>0.03015614270219312</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6937</v>
+        <v>5961</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008162209012455261</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02872918049819543</v>
+        <v>0.02468696387804338</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1325,19 +1325,19 @@
         <v>4835</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1874</v>
+        <v>1859</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10655</v>
+        <v>9798</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009508393089634649</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00368552277233816</v>
+        <v>0.003655060897088675</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02095422459883983</v>
+        <v>0.0192700492537223</v>
       </c>
     </row>
     <row r="13">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7377</v>
+        <v>7654</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007982838835262955</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02762863981448411</v>
+        <v>0.02866501479149254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5462</v>
+        <v>3560</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003326807930209016</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02261917416289269</v>
+        <v>0.01474527887364711</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1396,19 +1396,19 @@
         <v>2935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8109</v>
+        <v>8691</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005771808093976492</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001558537999811123</v>
+        <v>0.001578847184825764</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01594736028566538</v>
+        <v>0.01709198731297898</v>
       </c>
     </row>
     <row r="14">
@@ -1425,19 +1425,19 @@
         <v>251628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>242646</v>
+        <v>241371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>258229</v>
+        <v>257788</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9423681855239922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9087288322193349</v>
+        <v>0.9039542708250368</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9670882729451568</v>
+        <v>0.9654378914208694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>229</v>
@@ -1446,19 +1446,19 @@
         <v>234658</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>227965</v>
+        <v>227832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>238655</v>
+        <v>238426</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9718078359228332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.944093014253957</v>
+        <v>0.9435392929281158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9883610216289026</v>
+        <v>0.9874132059420921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>469</v>
@@ -1467,19 +1467,19 @@
         <v>486287</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>476001</v>
+        <v>475127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>494328</v>
+        <v>494660</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.956348327273891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9361192677824389</v>
+        <v>0.9344005412521474</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9721613353039741</v>
+        <v>0.9728142707228821</v>
       </c>
     </row>
     <row r="15">
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5756</v>
+        <v>5859</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02168388765716231</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06693210857399703</v>
+        <v>0.06813889228575164</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6141</v>
+        <v>6553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009769363713641233</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03217629651254928</v>
+        <v>0.03433307629573418</v>
       </c>
     </row>
     <row r="17">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5524</v>
+        <v>4121</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01057163967007271</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06423426790274497</v>
+        <v>0.04792507258384113</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4437</v>
+        <v>3712</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004762900205876375</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02324585028559564</v>
+        <v>0.01944730864857937</v>
       </c>
     </row>
     <row r="18">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5085</v>
+        <v>5164</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.009719009764802425</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04848547143676494</v>
+        <v>0.04924032652025073</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5279</v>
+        <v>5161</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005340249699726014</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02766006672636282</v>
+        <v>0.02704117125863243</v>
       </c>
     </row>
     <row r="19">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7371</v>
+        <v>5834</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01097401989095506</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07028459859614562</v>
+        <v>0.05563260890785936</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5859</v>
+        <v>7594</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006029833063826684</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03069592893622489</v>
+        <v>0.03978823002641049</v>
       </c>
     </row>
     <row r="20">
@@ -1823,19 +1823,19 @@
         <v>83218</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77936</v>
+        <v>78445</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>85131</v>
+        <v>85133</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.967744472672765</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.90631239673139</v>
+        <v>0.9122415468037959</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9899881284573039</v>
+        <v>0.9900164833802639</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -1844,7 +1844,7 @@
         <v>102705</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>97276</v>
+        <v>97321</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>104875</v>
@@ -1853,7 +1853,7 @@
         <v>0.9793069703442425</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9275432137912081</v>
+        <v>0.9279742675972956</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1865,19 +1865,19 @@
         <v>185923</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>180244</v>
+        <v>180741</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>189021</v>
+        <v>189037</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9740976533169297</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9443425913118465</v>
+        <v>0.9469488829376308</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9903293894911948</v>
+        <v>0.9904107433324166</v>
       </c>
     </row>
     <row r="21">
@@ -1969,19 +1969,19 @@
         <v>18241</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10807</v>
+        <v>10944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28791</v>
+        <v>28383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04263634958417344</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02526069039352937</v>
+        <v>0.02557923136816263</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06729423100999141</v>
+        <v>0.06634166429514061</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -1990,19 +1990,19 @@
         <v>3763</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>960</v>
+        <v>1003</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9340</v>
+        <v>9355</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009622083475346505</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00245621816601647</v>
+        <v>0.002564898452185522</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02388568651877737</v>
+        <v>0.02392415679161994</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2011,19 +2011,19 @@
         <v>22004</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14391</v>
+        <v>13794</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32192</v>
+        <v>32306</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02687103572494355</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01757402682049274</v>
+        <v>0.01684525971861275</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03931233751170835</v>
+        <v>0.03945248900228519</v>
       </c>
     </row>
     <row r="23">
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6527</v>
+        <v>6485</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004445257510648113</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01525644763463351</v>
+        <v>0.01515869927901302</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6465</v>
+        <v>7200</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003286756448569371</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01653215873805865</v>
+        <v>0.01841190937716718</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>3187</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8500</v>
+        <v>8257</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003892038099690518</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001111742739492658</v>
+        <v>0.001109908778836072</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01038014694765667</v>
+        <v>0.01008284666779719</v>
       </c>
     </row>
     <row r="24">
@@ -2111,19 +2111,19 @@
         <v>4813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1819</v>
+        <v>1889</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11390</v>
+        <v>10354</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01124940519024679</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004250748284455069</v>
+        <v>0.004414756723725605</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02662260305944241</v>
+        <v>0.02420168198313975</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2132,19 +2132,19 @@
         <v>2990</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7910</v>
+        <v>7778</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.007646811451527528</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00241162860233525</v>
+        <v>0.002428629393244282</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02022953677498817</v>
+        <v>0.01989199192686622</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2153,19 +2153,19 @@
         <v>7803</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3826</v>
+        <v>3866</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15377</v>
+        <v>15991</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.00952905736209924</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004671808903663253</v>
+        <v>0.004721253113283992</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01877864651875359</v>
+        <v>0.01952779803662145</v>
       </c>
     </row>
     <row r="25">
@@ -2182,19 +2182,19 @@
         <v>13157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7429</v>
+        <v>7331</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21909</v>
+        <v>22538</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03075341540850364</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01736390157547432</v>
+        <v>0.01713517969702561</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05120866548473287</v>
+        <v>0.05267875915594014</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2203,19 +2203,19 @@
         <v>6069</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2234</v>
+        <v>2160</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11546</v>
+        <v>12952</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01551920262511947</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005712039391723565</v>
+        <v>0.005524766305768996</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02952759829169764</v>
+        <v>0.03312314189413363</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -2224,19 +2224,19 @@
         <v>19226</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11526</v>
+        <v>11991</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29892</v>
+        <v>29101</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02347861653408222</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01407572371918719</v>
+        <v>0.01464336585594733</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03650461006676435</v>
+        <v>0.0355384284875187</v>
       </c>
     </row>
     <row r="26">
@@ -2253,19 +2253,19 @@
         <v>389721</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>376101</v>
+        <v>377527</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>399247</v>
+        <v>400399</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9109155723064281</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8790814389320516</v>
+        <v>0.8824142225818374</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9331830465911334</v>
+        <v>0.9358754007330842</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>364</v>
@@ -2274,19 +2274,19 @@
         <v>376928</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>368454</v>
+        <v>367354</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>383074</v>
+        <v>383162</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9639251459994371</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9422542533286067</v>
+        <v>0.9394391592206399</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9796410177525361</v>
+        <v>0.9798663696971841</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>736</v>
@@ -2295,19 +2295,19 @@
         <v>766649</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>751194</v>
+        <v>750751</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>778651</v>
+        <v>779012</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9362292522791845</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9173556518273327</v>
+        <v>0.9168150397266499</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9508859577311636</v>
+        <v>0.9513269449957021</v>
       </c>
     </row>
     <row r="27">
@@ -2638,19 +2638,19 @@
         <v>22693</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14360</v>
+        <v>15112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33226</v>
+        <v>33726</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08974292746947093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05678967814504735</v>
+        <v>0.05976308846313399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1313970217718314</v>
+        <v>0.1333741774626309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2659,19 +2659,19 @@
         <v>34468</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24734</v>
+        <v>23744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48315</v>
+        <v>45307</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1658622348899755</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1190245063852556</v>
+        <v>0.1142603524689202</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2324964343336924</v>
+        <v>0.2180191041259132</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -2680,19 +2680,19 @@
         <v>57161</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43328</v>
+        <v>42506</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71334</v>
+        <v>73516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1240799507405943</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09405139252831167</v>
+        <v>0.09226715860871339</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1548453264598745</v>
+        <v>0.1595813988785418</v>
       </c>
     </row>
     <row r="5">
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6041</v>
+        <v>6933</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007777895805517938</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02388968807762605</v>
+        <v>0.02741832251025616</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5085</v>
+        <v>5122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004929212026604075</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02446815353251201</v>
+        <v>0.024648761497723</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -2751,19 +2751,19 @@
         <v>2991</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7959</v>
+        <v>7942</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006492869384188622</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0</v>
+        <v>0.002009244315322031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01727658629278036</v>
+        <v>0.01724003978333929</v>
       </c>
     </row>
     <row r="6">
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8127</v>
+        <v>7263</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008148127916476375</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03213893218545956</v>
+        <v>0.02872265446505366</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -2801,19 +2801,19 @@
         <v>3613</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9735</v>
+        <v>8680</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01738466175252218</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005573256586869604</v>
+        <v>0.005602470799004346</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04684443879789474</v>
+        <v>0.04176715913218637</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -2822,19 +2822,19 @@
         <v>5673</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2161</v>
+        <v>2090</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13328</v>
+        <v>12232</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01231468024098412</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004691441257032096</v>
+        <v>0.004537669553758951</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02893188327882004</v>
+        <v>0.02655265441041986</v>
       </c>
     </row>
     <row r="7">
@@ -2851,19 +2851,19 @@
         <v>5463</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1160</v>
+        <v>2120</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13245</v>
+        <v>13885</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02160553552268856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004586084011476862</v>
+        <v>0.00838213136974254</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05237944264128071</v>
+        <v>0.05490978104900326</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5842</v>
+        <v>5220</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004995616143198773</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02811033175175191</v>
+        <v>0.02512049686961505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -2893,19 +2893,19 @@
         <v>6502</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2156</v>
+        <v>2147</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16750</v>
+        <v>14923</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01411288736820219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004678998221098953</v>
+        <v>0.004660566030711559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03636033284206892</v>
+        <v>0.0323933844163558</v>
       </c>
     </row>
     <row r="8">
@@ -2922,19 +2922,19 @@
         <v>220685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>207825</v>
+        <v>207195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>230170</v>
+        <v>230784</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8727255132858462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.82186876988118</v>
+        <v>0.8193753506855737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9102328200213787</v>
+        <v>0.912662146805338</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>154</v>
@@ -2943,19 +2943,19 @@
         <v>167667</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>154660</v>
+        <v>156561</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>178362</v>
+        <v>179478</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8068282751876995</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7442374159763502</v>
+        <v>0.7533839394620074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8582950681305999</v>
+        <v>0.8636634913786462</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>366</v>
@@ -2964,19 +2964,19 @@
         <v>388352</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>371423</v>
+        <v>371056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>404023</v>
+        <v>404360</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8429996122660307</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8062520994548584</v>
+        <v>0.8054555830887615</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8770169340211529</v>
+        <v>0.8777488545184848</v>
       </c>
     </row>
     <row r="9">
@@ -3068,19 +3068,19 @@
         <v>49204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36941</v>
+        <v>35393</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66043</v>
+        <v>63928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06340176010158187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04759983418602536</v>
+        <v>0.04560511253731854</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08509916739330482</v>
+        <v>0.08237332520106168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -3089,19 +3089,19 @@
         <v>35864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25472</v>
+        <v>25168</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49883</v>
+        <v>48565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05573680108971643</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03958616219930548</v>
+        <v>0.03911375574175079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07752487912258864</v>
+        <v>0.07547608442605437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -3110,19 +3110,19 @@
         <v>85068</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68425</v>
+        <v>68895</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105702</v>
+        <v>104936</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05992736079059093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04820260368597493</v>
+        <v>0.04853433694330175</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.074463040691902</v>
+        <v>0.07392385962801884</v>
       </c>
     </row>
     <row r="11">
@@ -3139,19 +3139,19 @@
         <v>3116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8108</v>
+        <v>9265</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004015312211109297</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001239199670032492</v>
+        <v>0.001224392148714557</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01044806349569517</v>
+        <v>0.01193876173652997</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -3160,19 +3160,19 @@
         <v>4250</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9674</v>
+        <v>9965</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006604559439286931</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001753734565365388</v>
+        <v>0.001768473379037153</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01503416833854387</v>
+        <v>0.0154870764829811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -3181,19 +3181,19 @@
         <v>7366</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2960</v>
+        <v>3211</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14042</v>
+        <v>14500</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005188975210694753</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002085377632280443</v>
+        <v>0.002261724115411701</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009891749726578069</v>
+        <v>0.01021449121222858</v>
       </c>
     </row>
     <row r="12">
@@ -3210,19 +3210,19 @@
         <v>3517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>898</v>
+        <v>923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8075</v>
+        <v>8660</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004531860017050582</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001156470074489023</v>
+        <v>0.001189206027763827</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01040511564357944</v>
+        <v>0.01115820958390715</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5746</v>
+        <v>5749</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.001786902999251614</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.00893043933452357</v>
+        <v>0.008935270294523496</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -3252,19 +3252,19 @@
         <v>4667</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1669</v>
+        <v>1692</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10700</v>
+        <v>10664</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003287616341829753</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001175898173873635</v>
+        <v>0.001191994155321203</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.007537697918428545</v>
+        <v>0.007512678468245921</v>
       </c>
     </row>
     <row r="13">
@@ -3281,19 +3281,19 @@
         <v>6241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2995</v>
+        <v>2165</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14567</v>
+        <v>14626</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008041670567777071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003859544769643824</v>
+        <v>0.002790243995547175</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01877001358220835</v>
+        <v>0.01884563471623295</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3302,19 +3302,19 @@
         <v>5141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1948</v>
+        <v>1954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12047</v>
+        <v>11225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007990209666273871</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003027743539485012</v>
+        <v>0.003036279940680754</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01872255032154377</v>
+        <v>0.01744496776135267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -3323,19 +3323,19 @@
         <v>11382</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6025</v>
+        <v>5998</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19027</v>
+        <v>19847</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008018344191152106</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004244659407324365</v>
+        <v>0.004225190168501381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01340365749543929</v>
+        <v>0.01398166731713725</v>
       </c>
     </row>
     <row r="14">
@@ -3352,19 +3352,19 @@
         <v>713995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>696099</v>
+        <v>697895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>727752</v>
+        <v>728758</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9200093971024812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8969494709418627</v>
+        <v>0.8992637284937579</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9377359095329313</v>
+        <v>0.9390320623506867</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>558</v>
@@ -3373,19 +3373,19 @@
         <v>597041</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>582092</v>
+        <v>583470</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>608838</v>
+        <v>609303</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9278815268054712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9046497526526021</v>
+        <v>0.906790088340895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9462158751499596</v>
+        <v>0.9469391041579099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1243</v>
@@ -3394,19 +3394,19 @@
         <v>1311036</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1289249</v>
+        <v>1289740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1330074</v>
+        <v>1331015</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9235777034657324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9082295663818982</v>
+        <v>0.9085753303425544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9369892977823643</v>
+        <v>0.9376519787122254</v>
       </c>
     </row>
     <row r="15">
@@ -3498,19 +3498,19 @@
         <v>8459</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4457</v>
+        <v>3818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16065</v>
+        <v>15252</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04303480863785928</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02267635584925813</v>
+        <v>0.01942458347225607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08172614659835709</v>
+        <v>0.07759069924387391</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3519,19 +3519,19 @@
         <v>8199</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3158</v>
+        <v>3167</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16344</v>
+        <v>16245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04096859685183617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01578169176342859</v>
+        <v>0.01582338132842885</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08167049336815072</v>
+        <v>0.08117602798312638</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -3540,19 +3540,19 @@
         <v>16658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10055</v>
+        <v>9346</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25937</v>
+        <v>25963</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04199245949132646</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02534730877974087</v>
+        <v>0.02355944360962112</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06538380619837904</v>
+        <v>0.06544898123260193</v>
       </c>
     </row>
     <row r="17">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4704</v>
+        <v>5697</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005104774556156285</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02392880193147774</v>
+        <v>0.02898076396408742</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5866</v>
+        <v>6342</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005800712717473132</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02931117778630628</v>
+        <v>0.0316903004595255</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7389</v>
+        <v>6700</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005455856934736869</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01862574172345632</v>
+        <v>0.01688984628300054</v>
       </c>
     </row>
     <row r="18">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4807</v>
+        <v>4685</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004766811648436567</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02445468731095127</v>
+        <v>0.02383509148587203</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5279</v>
+        <v>5000</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005023125805162699</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02637983946716443</v>
+        <v>0.02498564236162457</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6653</v>
+        <v>6004</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.004896115355014482</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01677153911807334</v>
+        <v>0.01513532339506864</v>
       </c>
     </row>
     <row r="19">
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12282</v>
+        <v>12254</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01624023171473088</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06248300529052866</v>
+        <v>0.06233721573274176</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4513</v>
+        <v>6406</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00446027375213817</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02254953723468672</v>
+        <v>0.03201341042358071</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -3753,19 +3753,19 @@
         <v>4085</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13946</v>
+        <v>12705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01029755477737089</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002277215783741433</v>
+        <v>0.002258021453996458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03515598114052625</v>
+        <v>0.03202760571194554</v>
       </c>
     </row>
     <row r="20">
@@ -3782,19 +3782,19 @@
         <v>182978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>173510</v>
+        <v>173708</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188810</v>
+        <v>189008</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.930853373442817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8826856046121287</v>
+        <v>0.8836966209262324</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9605233448935299</v>
+        <v>0.9615289629163526</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>171</v>
@@ -3803,19 +3803,19 @@
         <v>188862</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180224</v>
+        <v>180175</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>194994</v>
+        <v>194942</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9437472908733898</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9005816936040976</v>
+        <v>0.9003410684092787</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9743918038262664</v>
+        <v>0.9741309855809061</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>333</v>
@@ -3824,19 +3824,19 @@
         <v>371840</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>359885</v>
+        <v>359733</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>380432</v>
+        <v>380792</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9373580134415513</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9072217900438857</v>
+        <v>0.9068392328288356</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9590194767016113</v>
+        <v>0.9599258144559707</v>
       </c>
     </row>
     <row r="21">
@@ -3928,19 +3928,19 @@
         <v>80357</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64370</v>
+        <v>62541</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100361</v>
+        <v>99534</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06557010441086898</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05252520665120827</v>
+        <v>0.0510326971217805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08189279398529382</v>
+        <v>0.08121776685847591</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -3949,19 +3949,19 @@
         <v>78530</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61387</v>
+        <v>62382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97646</v>
+        <v>96506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07469272431077174</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05838771777803804</v>
+        <v>0.05933408069822951</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09287421924125841</v>
+        <v>0.09178995499932766</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>148</v>
@@ -3970,19 +3970,19 @@
         <v>158887</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136898</v>
+        <v>137371</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188734</v>
+        <v>188328</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06978255811720104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06012507876552051</v>
+        <v>0.06033295463055423</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08289112321227231</v>
+        <v>0.08271285845030328</v>
       </c>
     </row>
     <row r="23">
@@ -3999,19 +3999,19 @@
         <v>6086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2060</v>
+        <v>2816</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12226</v>
+        <v>13085</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00496642125062151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001681105338815562</v>
+        <v>0.00229740627475344</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.009976557894311061</v>
+        <v>0.01067699528379145</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -4020,19 +4020,19 @@
         <v>6435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2230</v>
+        <v>2941</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14078</v>
+        <v>13672</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006120412727622466</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00212109878726086</v>
+        <v>0.002797170878613964</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01339024930997496</v>
+        <v>0.01300356320519669</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -4041,19 +4041,19 @@
         <v>12521</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6493</v>
+        <v>7107</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20865</v>
+        <v>21643</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005499287436838487</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002851870745700612</v>
+        <v>0.003121166613637785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.009163858422691806</v>
+        <v>0.009505442235367841</v>
       </c>
     </row>
     <row r="24">
@@ -4070,19 +4070,19 @@
         <v>6514</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2733</v>
+        <v>2745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12491</v>
+        <v>12667</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005315716752842729</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002230412899120199</v>
+        <v>0.002239868885258342</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01019216570355521</v>
+        <v>0.01033614589793454</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -4091,19 +4091,19 @@
         <v>5768</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2271</v>
+        <v>2177</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12729</v>
+        <v>12429</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005485873443183179</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002159793853298518</v>
+        <v>0.002070409866388972</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0121072137738584</v>
+        <v>0.01182199288820635</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -4112,19 +4112,19 @@
         <v>12282</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6258</v>
+        <v>6703</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20438</v>
+        <v>21203</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005394288170784791</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002748423012433452</v>
+        <v>0.002943845253544795</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008976434610169705</v>
+        <v>0.009312235220206423</v>
       </c>
     </row>
     <row r="25">
@@ -4141,19 +4141,19 @@
         <v>14897</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8423</v>
+        <v>7462</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26574</v>
+        <v>25609</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01215543562587734</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006872772062650565</v>
+        <v>0.006088874870527577</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02168394525222281</v>
+        <v>0.02089665816053167</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -4162,19 +4162,19 @@
         <v>7072</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3115</v>
+        <v>2898</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14524</v>
+        <v>14183</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00672642053026181</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002962329572272563</v>
+        <v>0.002755937311336416</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01381401115357395</v>
+        <v>0.01348990968595724</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -4183,19 +4183,19 @@
         <v>21969</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13633</v>
+        <v>13868</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34519</v>
+        <v>34342</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009648537935061338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00598756227469467</v>
+        <v>0.006090892082521667</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01516075512400178</v>
+        <v>0.01508274557005746</v>
       </c>
     </row>
     <row r="26">
@@ -4212,19 +4212,19 @@
         <v>1117659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1094705</v>
+        <v>1096888</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1135732</v>
+        <v>1139144</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9119923219597894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8932621913470289</v>
+        <v>0.8950435879519014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9267396562331097</v>
+        <v>0.9295238504957116</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>883</v>
@@ -4233,19 +4233,19 @@
         <v>953569</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>932689</v>
+        <v>934332</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>971970</v>
+        <v>971982</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9069745689881608</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8871143430513054</v>
+        <v>0.8886773293816503</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9244759319099307</v>
+        <v>0.9244873560861566</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1942</v>
@@ -4254,19 +4254,19 @@
         <v>2071229</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2040272</v>
+        <v>2041019</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2098842</v>
+        <v>2097864</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9096753283401143</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8960793690635721</v>
+        <v>0.8964072835961255</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9218030613531744</v>
+        <v>0.9213734827131033</v>
       </c>
     </row>
     <row r="27">
@@ -4597,19 +4597,19 @@
         <v>4160</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1044</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10403</v>
+        <v>10680</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03576781101390477</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008974681300817642</v>
+        <v>0.008801637137664681</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08943676245142013</v>
+        <v>0.09181761963399332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4618,19 +4618,19 @@
         <v>7041</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3213</v>
+        <v>3005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13180</v>
+        <v>13207</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1287468752797184</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05874505682775792</v>
+        <v>0.05493902794259033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2409968570834586</v>
+        <v>0.2414854471667353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -4639,19 +4639,19 @@
         <v>11202</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5943</v>
+        <v>5951</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19277</v>
+        <v>20143</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06550359523398214</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03475130465639042</v>
+        <v>0.03480039996215637</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1127272244130278</v>
+        <v>0.117791316371094</v>
       </c>
     </row>
     <row r="5">
@@ -4715,19 +4715,19 @@
         <v>4191</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1033</v>
+        <v>1103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10361</v>
+        <v>10413</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03603213352187903</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008877038982824555</v>
+        <v>0.009480753871818371</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08907209066167877</v>
+        <v>0.08952103006041871</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4749,19 +4749,19 @@
         <v>4191</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1098</v>
+        <v>1036</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10536</v>
+        <v>9788</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02450863889590056</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006423544912823073</v>
+        <v>0.006055774744381492</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06160829753388578</v>
+        <v>0.0572366012973368</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4778,19 @@
         <v>2924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7935</v>
+        <v>7294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02513841108457856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007580614176522942</v>
+        <v>0.007592798138223934</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06821562194353396</v>
+        <v>0.06270663807115012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -4812,19 +4812,19 @@
         <v>2924</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8169</v>
+        <v>8106</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01709885536793244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005164098072408608</v>
+        <v>0.005199982865582159</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04776790156222178</v>
+        <v>0.0474027874998813</v>
       </c>
     </row>
     <row r="8">
@@ -4841,19 +4841,19 @@
         <v>105042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96314</v>
+        <v>96606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>110366</v>
+        <v>110402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9030616443796377</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8280194916983277</v>
+        <v>0.8305307554235091</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9488294608811656</v>
+        <v>0.9491383434822436</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -4862,19 +4862,19 @@
         <v>47649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41510</v>
+        <v>41483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51477</v>
+        <v>51685</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8712531247202816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7590031429165415</v>
+        <v>0.7585145528332645</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9412549431722421</v>
+        <v>0.9450609720574096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>148</v>
@@ -4883,19 +4883,19 @@
         <v>152691</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142985</v>
+        <v>143182</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>159791</v>
+        <v>159868</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8928889105021849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8361329106233534</v>
+        <v>0.8372830043866655</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9344090448189525</v>
+        <v>0.9348545673707447</v>
       </c>
     </row>
     <row r="9">
@@ -4987,19 +4987,19 @@
         <v>8625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3873</v>
+        <v>4594</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15693</v>
+        <v>16300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01426305049366546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006404834660404692</v>
+        <v>0.007596545908528146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02595006497911088</v>
+        <v>0.02695478847284023</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5008,19 +5008,19 @@
         <v>9791</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4843</v>
+        <v>4879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17569</v>
+        <v>17188</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01858156101553198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009190558417218575</v>
+        <v>0.009259489956536091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03334425182187214</v>
+        <v>0.03262137110258211</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -5029,19 +5029,19 @@
         <v>18416</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11226</v>
+        <v>11510</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27785</v>
+        <v>28243</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01627381392067942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00992009614173887</v>
+        <v>0.01017082165214426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02455322622529874</v>
+        <v>0.0249576653101009</v>
       </c>
     </row>
     <row r="11">
@@ -5058,19 +5058,19 @@
         <v>3303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8881</v>
+        <v>9045</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005462201688640236</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001737036571066182</v>
+        <v>0.001739725636514446</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01468650017625459</v>
+        <v>0.01495716792864719</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -5079,19 +5079,19 @@
         <v>3138</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8996</v>
+        <v>8507</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005955241477271475</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001898518641434817</v>
+        <v>0.001880508909169031</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01707259472983342</v>
+        <v>0.01614590583749603</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -5100,19 +5100,19 @@
         <v>6441</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2169</v>
+        <v>2196</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13350</v>
+        <v>13075</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005691768426991935</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001916734635648281</v>
+        <v>0.001940752689782958</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01179754963151743</v>
+        <v>0.01155399559022455</v>
       </c>
     </row>
     <row r="12">
@@ -5129,19 +5129,19 @@
         <v>3018</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>939</v>
+        <v>58</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8457</v>
+        <v>7938</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004990227475873711</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001553231195744113</v>
+        <v>9.538484657332417e-05</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01398409950748383</v>
+        <v>0.01312581639740506</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5163,19 +5163,19 @@
         <v>3018</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8027</v>
+        <v>9023</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002666702535929801</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0008325029362757203</v>
+        <v>0.0008348186507698329</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.007093120876580125</v>
+        <v>0.007973020203779758</v>
       </c>
     </row>
     <row r="13">
@@ -5192,19 +5192,19 @@
         <v>9207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4371</v>
+        <v>3978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17636</v>
+        <v>17169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0152244907011661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007228300936932529</v>
+        <v>0.006578706532566186</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0291637507896261</v>
+        <v>0.02839181509481819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5213,19 +5213,19 @@
         <v>10491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5469</v>
+        <v>4951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19232</v>
+        <v>18825</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01990989833487162</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0103800459162469</v>
+        <v>0.009395550196127667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03650011641883377</v>
+        <v>0.03572776927712443</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -5234,19 +5234,19 @@
         <v>19697</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12078</v>
+        <v>10918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30483</v>
+        <v>30290</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01740608693968472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01067290581715095</v>
+        <v>0.00964831433840585</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02693717697027662</v>
+        <v>0.02676668693904084</v>
       </c>
     </row>
     <row r="14">
@@ -5263,19 +5263,19 @@
         <v>580574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>570093</v>
+        <v>569419</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>589525</v>
+        <v>589401</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9600600296406545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9427277161360623</v>
+        <v>0.9416127328251765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9748607715659748</v>
+        <v>0.9746560921968463</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>493</v>
@@ -5284,19 +5284,19 @@
         <v>503486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>491910</v>
+        <v>493150</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>511221</v>
+        <v>512059</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9555532991723249</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9335837151470294</v>
+        <v>0.9359363697290641</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9702338265081074</v>
+        <v>0.9718249731846536</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1036</v>
@@ -5305,19 +5305,19 @@
         <v>1084060</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1069361</v>
+        <v>1068667</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1096458</v>
+        <v>1097525</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9579616281767142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9449727055274819</v>
+        <v>0.944359076025104</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9689177918530847</v>
+        <v>0.9698601267012691</v>
       </c>
     </row>
     <row r="15">
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5840</v>
+        <v>6629</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01009353653718349</v>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03074761632326235</v>
+        <v>0.0349042800115092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5430,19 +5430,19 @@
         <v>2963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8094</v>
+        <v>7909</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01437119741790338</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004634284582570937</v>
+        <v>0.004686835724654293</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03925175429105308</v>
+        <v>0.03835861074798256</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -5451,19 +5451,19 @@
         <v>4880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1926</v>
+        <v>1913</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10992</v>
+        <v>10808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01232024565565141</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004861193587039315</v>
+        <v>0.004829388155117994</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02774909002045945</v>
+        <v>0.02728555067941629</v>
       </c>
     </row>
     <row r="17">
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5701</v>
+        <v>5280</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005556903755789763</v>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03001935143449033</v>
+        <v>0.02780285685750469</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5748</v>
+        <v>5334</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002664292908764574</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01450958808471526</v>
+        <v>0.01346501220855035</v>
       </c>
     </row>
     <row r="19">
@@ -5590,19 +5590,19 @@
         <v>3599</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9148</v>
+        <v>11081</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01895130173812935</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004791589782478069</v>
+        <v>0.004742406024555246</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04816964108096893</v>
+        <v>0.05834541188852449</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5614,16 +5614,16 @@
         <v>926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7984</v>
+        <v>8356</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0146646264761727</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004492454206039789</v>
+        <v>0.004492794514151012</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03872102646637571</v>
+        <v>0.04052405294340891</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -5632,19 +5632,19 @@
         <v>6623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2766</v>
+        <v>2857</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14985</v>
+        <v>14812</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01671990024093929</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006982264530447221</v>
+        <v>0.007211565602097785</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03782828668928764</v>
+        <v>0.03739241041987912</v>
       </c>
     </row>
     <row r="20">
@@ -5661,19 +5661,19 @@
         <v>183350</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>176239</v>
+        <v>175458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>187131</v>
+        <v>187099</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9653982579688974</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9279523179718703</v>
+        <v>0.9238429606088104</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9853058436051687</v>
+        <v>0.9851336966748274</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>195</v>
@@ -5682,19 +5682,19 @@
         <v>200210</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193911</v>
+        <v>194335</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>204142</v>
+        <v>204190</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9709641761059239</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9404184609958308</v>
+        <v>0.9424735505238337</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9900360903307017</v>
+        <v>0.9902681382499869</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>359</v>
@@ -5703,19 +5703,19 @@
         <v>383560</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>374484</v>
+        <v>375467</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>389289</v>
+        <v>389360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9682955611946448</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9453824068945798</v>
+        <v>0.9478653213015649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.982756690884327</v>
+        <v>0.9829373641214231</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         <v>14703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8572</v>
+        <v>8599</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24576</v>
+        <v>23745</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01613962886722282</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009409291665161012</v>
+        <v>0.009439387900091013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02697767549712364</v>
+        <v>0.02606603013918484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -5828,19 +5828,19 @@
         <v>19795</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12571</v>
+        <v>12712</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30239</v>
+        <v>31842</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02512745956752934</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01595727952073083</v>
+        <v>0.01613630317624098</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03838400426542597</v>
+        <v>0.04041913087447328</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -5849,19 +5849,19 @@
         <v>34498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24497</v>
+        <v>24756</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47457</v>
+        <v>47674</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02030769815821277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01442032445724135</v>
+        <v>0.01457304948981552</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02793616018837263</v>
+        <v>0.02806397833857352</v>
       </c>
     </row>
     <row r="23">
@@ -5878,19 +5878,19 @@
         <v>3303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7814</v>
+        <v>9088</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003625974945485698</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00115682917480892</v>
+        <v>0.001156345609712557</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.008577313830648229</v>
+        <v>0.009976124966810371</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -5899,19 +5899,19 @@
         <v>3138</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8261</v>
+        <v>8410</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003983087227987888</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001267708181285051</v>
+        <v>0.001267022928671072</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01048592207063676</v>
+        <v>0.01067490149586961</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -5920,19 +5920,19 @@
         <v>6441</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2197</v>
+        <v>2212</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12509</v>
+        <v>14067</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003791584288581351</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00129338889340141</v>
+        <v>0.001301940986635903</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.007363882078928848</v>
+        <v>0.008280713543354712</v>
       </c>
     </row>
     <row r="24">
@@ -5949,19 +5949,19 @@
         <v>8264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4025</v>
+        <v>4038</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16424</v>
+        <v>15677</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009071983797857732</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004418827335581139</v>
+        <v>0.004432725330743317</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01802973599891679</v>
+        <v>0.01720940308255808</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -5983,19 +5983,19 @@
         <v>8264</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4066</v>
+        <v>3991</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15675</v>
+        <v>15532</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.004864888856147311</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002393257011756409</v>
+        <v>0.002349407962763458</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009227374942763791</v>
+        <v>0.009143216256976247</v>
       </c>
     </row>
     <row r="25">
@@ -6012,19 +6012,19 @@
         <v>15730</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9251</v>
+        <v>8093</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26531</v>
+        <v>25134</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01726733825793422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01015555257266916</v>
+        <v>0.008883442959561142</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0291236652308942</v>
+        <v>0.02759044703274225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -6033,19 +6033,19 @@
         <v>13514</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7379</v>
+        <v>7362</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22879</v>
+        <v>21434</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01715480856874932</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009366168106409981</v>
+        <v>0.009344708544005632</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02904175137508802</v>
+        <v>0.02720793947329427</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -6054,19 +6054,19 @@
         <v>29244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19195</v>
+        <v>20491</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42936</v>
+        <v>44262</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0172151530802806</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01129925663509349</v>
+        <v>0.01206208333960206</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02527492125335825</v>
+        <v>0.02605539154896374</v>
       </c>
     </row>
     <row r="26">
@@ -6083,19 +6083,19 @@
         <v>868967</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>854050</v>
+        <v>855043</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>881096</v>
+        <v>881114</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9538950741314995</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9375202312997444</v>
+        <v>0.9386099684020918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9672099646295038</v>
+        <v>0.9672296553364649</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>735</v>
@@ -6104,19 +6104,19 @@
         <v>751345</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>738182</v>
+        <v>738571</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>761700</v>
+        <v>762707</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9537346446357334</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9370259517213528</v>
+        <v>0.9375187956211957</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9668779280474794</v>
+        <v>0.9681561589165276</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1543</v>
@@ -6125,19 +6125,19 @@
         <v>1620311</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1601478</v>
+        <v>1601505</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1636541</v>
+        <v>1635312</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.953820675616778</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9427338305654293</v>
+        <v>0.9427499341965502</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9633744234036367</v>
+        <v>0.9626507121358331</v>
       </c>
     </row>
     <row r="27">
